--- a/Tools-Game Core User Stories & Test Cases.xlsx
+++ b/Tools-Game Core User Stories & Test Cases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>As an artist, I want a well thought-out and usable interface for my Animation editor.</t>
   </si>
@@ -334,9 +334,6 @@
     <t>I want to be able to attack enemy units</t>
   </si>
   <si>
-    <t>I want to be able to use combat abilities</t>
-  </si>
-  <si>
     <t>I want to be able to kill enemies</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>I want to move intuitively around the map, following a pathing algorithm</t>
   </si>
   <si>
-    <t>I want to be able to find and pickup objects</t>
-  </si>
-  <si>
     <t>I want to be able to stop my units if they are moving</t>
   </si>
   <si>
@@ -377,13 +371,16 @@
   </si>
   <si>
     <t>I want projectiles to collide and do appropriate effects</t>
+  </si>
+  <si>
+    <t>I want to be able to use the medic's heal ability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,34 +539,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -606,7 +603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -641,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,7 +718,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -732,7 +727,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -741,7 +736,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -817,133 +812,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="163.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="6"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15.75">
       <c r="A66" s="5"/>
     </row>
   </sheetData>
@@ -953,124 +948,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="163" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1081,119 +1076,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="168.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1204,182 +1199,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="146.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.75">
       <c r="A15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="11"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="15.75">
       <c r="A32" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.75">
       <c r="A35" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="9" t="s">
         <v>90</v>
       </c>
@@ -1390,101 +1385,96 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="14" spans="1:1" ht="15.75">
+      <c r="A14" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
